--- a/毕业项目源码和数据库/GC家园/GC家园/GC家园/ExcelFiles/添加学生.xlsx
+++ b/毕业项目源码和数据库/GC家园/GC家园/GC家园/ExcelFiles/添加学生.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Falling-Down\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928AC4FE-D73C-4BD9-B404-C598CB0E5589}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07FAC32-F637-4FFC-AD49-925B8BEA8436}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-630" yWindow="730" windowWidth="10070" windowHeight="8380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="730" windowWidth="10070" windowHeight="8380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>刘颖龙</t>
+    <t>刘颖康</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -380,7 +380,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -411,19 +411,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>201817380140</v>
+        <v>201817380116</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2">
-        <v>201817380140</v>
+        <v>201817380116</v>
       </c>
       <c r="D2">
         <v>1234</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>20</v>

--- a/毕业项目源码和数据库/GC家园/GC家园/GC家园/ExcelFiles/添加学生.xlsx
+++ b/毕业项目源码和数据库/GC家园/GC家园/GC家园/ExcelFiles/添加学生.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Falling-Down\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07FAC32-F637-4FFC-AD49-925B8BEA8436}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58B7E6A-8C53-4AA5-819B-B7004D08AC27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="730" windowWidth="10070" windowHeight="8380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4130" yWindow="710" windowWidth="10070" windowHeight="8380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,15 +43,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>学生性别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>学生年龄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>刘颖康</t>
+    <t>学生性别（0为女1为男）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李宇航</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -380,13 +380,14 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="19.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -403,30 +404,30 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>201817380116</v>
+        <v>201817380118</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2">
-        <v>201817380116</v>
+        <v>201817380118</v>
       </c>
       <c r="D2">
         <v>1234</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
